--- a/用例数据/沪A/DVP改革/备付金改革/测试结果.xlsx
+++ b/用例数据/沪A/DVP改革/备付金改革/测试结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>备付金账户名称</t>
-  </si>
-  <si>
-    <t>0.0000000000</t>
   </si>
   <si>
     <t>QYK_TZXX</t>
@@ -572,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -587,6 +584,8 @@
     <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -742,17 +741,11 @@
       <c r="Z2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -760,13 +753,13 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
@@ -775,7 +768,7 @@
         <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>46</v>
@@ -784,25 +777,19 @@
         <v>47</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -810,25 +797,25 @@
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>46</v>
@@ -837,31 +824,25 @@
         <v>47</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -869,25 +850,25 @@
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>46</v>
@@ -896,31 +877,25 @@
         <v>47</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -928,25 +903,25 @@
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>46</v>
@@ -955,31 +930,25 @@
         <v>47</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -987,25 +956,25 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>46</v>
@@ -1014,34 +983,28 @@
         <v>47</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
